--- a/Dahs2BlazorApp/wwwroot/ReportTemplate/FiveMinDailyReport.xlsx
+++ b/Dahs2BlazorApp/wwwroot/ReportTemplate/FiveMinDailyReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\CPMS2\Dahs2BlazorApp\wwwroot\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C832E36-4AB1-496F-9C6D-A3BB497EA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8C78CB-C395-4DC6-87A9-FF30AE3E352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="754" yWindow="754" windowWidth="25860" windowHeight="13055" xr2:uid="{8B98A8EB-F9A4-4A80-AD6F-0C97629B1276}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{8B98A8EB-F9A4-4A80-AD6F-0C97629B1276}"/>
   </bookViews>
   <sheets>
     <sheet name="M01" sheetId="1" r:id="rId1"/>
@@ -354,22 +354,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,9 +380,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -397,6 +388,9 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,6 +422,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,7 +744,7 @@
   <dimension ref="B1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:N4"/>
+      <selection activeCell="C7" sqref="C7:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -759,584 +756,584 @@
   <sheetData>
     <row r="1" spans="2:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="2:14" ht="21.9" x14ac:dyDescent="0.45">
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="2:14" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:14" ht="17.149999999999999" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>15</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>20</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>25</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>30</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <v>35</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>40</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>45</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>50</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="4"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="4"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="4"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="4"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="4"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="23"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="4"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="4"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="4"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="4"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="15"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="15"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="2:14" ht="17.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="18"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
     </row>
     <row r="36" spans="2:14" ht="17.149999999999999" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>

--- a/Dahs2BlazorApp/wwwroot/ReportTemplate/FiveMinDailyReport.xlsx
+++ b/Dahs2BlazorApp/wwwroot/ReportTemplate/FiveMinDailyReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\CPMS2\Dahs2BlazorApp\wwwroot\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8C78CB-C395-4DC6-87A9-FF30AE3E352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BCE34-9892-46F5-95F4-AC89C3ECC39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{8B98A8EB-F9A4-4A80-AD6F-0C97629B1276}"/>
+    <workbookView xWindow="6557" yWindow="2769" windowWidth="26357" windowHeight="13054" xr2:uid="{8B98A8EB-F9A4-4A80-AD6F-0C97629B1276}"/>
   </bookViews>
   <sheets>
     <sheet name="M01" sheetId="1" r:id="rId1"/>
@@ -388,6 +388,9 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,9 +425,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,42 +744,41 @@
   <dimension ref="B1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:N30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0.84375" customWidth="1"/>
-    <col min="2" max="2" width="9.61328125" customWidth="1"/>
-    <col min="3" max="14" width="8.15234375" customWidth="1"/>
+    <col min="2" max="14" width="15.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="21.9" x14ac:dyDescent="0.45">
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
@@ -788,17 +787,17 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="2:14" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:14" ht="17.149999999999999" thickTop="1" x14ac:dyDescent="0.45">
@@ -857,7 +856,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="23"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
@@ -874,7 +873,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="23"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
@@ -891,7 +890,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="23"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -908,7 +907,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="23"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
@@ -925,7 +924,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="23"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
@@ -942,7 +941,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="23"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
@@ -959,7 +958,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="23"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
@@ -976,7 +975,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="23"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
@@ -993,7 +992,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="23"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
@@ -1010,7 +1009,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="23"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
@@ -1027,7 +1026,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="23"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
@@ -1044,7 +1043,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="23"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
@@ -1061,7 +1060,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="23"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
@@ -1078,7 +1077,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="23"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
@@ -1095,7 +1094,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="23"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
@@ -1112,7 +1111,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="23"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
@@ -1129,7 +1128,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="23"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
@@ -1146,7 +1145,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="23"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
@@ -1163,7 +1162,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="23"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
@@ -1180,7 +1179,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="23"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
@@ -1197,7 +1196,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="23"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
@@ -1214,7 +1213,7 @@
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="23"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
@@ -1231,7 +1230,7 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="23"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
@@ -1248,92 +1247,92 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="23"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="2:14" ht="17.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="2:14" ht="17.149999999999999" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
